--- a/Planning/AtlasAnalysis_ProjectPlan.xlsx
+++ b/Planning/AtlasAnalysis_ProjectPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Education\GWFinTech2020\Projects\Project8\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C227D2-8202-4FCD-9E8B-856C31C01891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F970D2A4-1181-4DA2-A6DE-CD941C5D565E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19515" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Category</t>
   </si>
@@ -127,10 +127,19 @@
     <t>Clean data</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement </t>
-  </si>
-  <si>
     <t>TODO MVC description (0)</t>
+  </si>
+  <si>
+    <t>Goal #</t>
+  </si>
+  <si>
+    <t>Implement data ingestion including basic cleanup.</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Task #</t>
   </si>
 </sst>
 </file>
@@ -469,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E43"/>
+  <dimension ref="B2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,10 +489,11 @@
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="83.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="83.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -494,248 +504,257 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>28</v>
       </c>
     </row>
